--- a/datein/Test.xlsx
+++ b/datein/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\koord-app-altenberge\datein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\MOTO\datein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75E95C12-AB6D-4625-AEC4-5C7E63EB16FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506E1D60-7903-4D0A-9F55-556D90BBFBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schueler" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="130">
   <si>
     <t>vorname</t>
   </si>
@@ -415,6 +415,21 @@
   </si>
   <si>
     <t>Aushilfskraft</t>
+  </si>
+  <si>
+    <t>kategorie</t>
+  </si>
+  <si>
+    <t>Gebäude A</t>
+  </si>
+  <si>
+    <t>Gebäude B</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>hex_farbe</t>
   </si>
 </sst>
 </file>
@@ -795,13 +810,13 @@
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -847,7 +862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -870,7 +885,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -893,7 +908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -916,7 +931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -939,7 +954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -962,7 +977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -985,7 +1000,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -1008,7 +1023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1031,7 +1046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1054,7 +1069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1077,7 +1092,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -1123,7 +1138,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -1146,7 +1161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -1169,7 +1184,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -1192,7 +1207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -1238,7 +1253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -1261,7 +1276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -1284,7 +1299,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -1307,7 +1322,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>96</v>
       </c>
@@ -1330,7 +1345,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -1353,7 +1368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -1376,7 +1391,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -1399,7 +1414,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1422,7 +1437,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -1445,7 +1460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -1468,7 +1483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -1491,7 +1506,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -1514,7 +1529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -1537,7 +1552,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -1560,7 +1575,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -1606,7 +1621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -1629,7 +1644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -1677,17 +1692,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1730,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1729,7 +1744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -1757,7 +1772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -1771,7 +1786,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1785,7 +1800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1799,7 +1814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -1813,7 +1828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -1827,7 +1842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -1841,7 +1856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1855,7 +1870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -1883,15 +1898,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="20.26953125" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1929,7 +1944,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1961,7 +1976,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2000,14 +2015,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2018,7 +2033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2029,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2040,7 +2055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -2051,7 +2066,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -2062,7 +2077,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -2080,15 +2095,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C266C4C-9DC7-429B-B311-1310086F7055}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2098,8 +2113,14 @@
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2109,8 +2130,11 @@
       <c r="C2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>20</v>
       </c>
@@ -2120,8 +2144,11 @@
       <c r="C3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>12</v>
       </c>
@@ -2131,8 +2158,11 @@
       <c r="C4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -2142,8 +2172,14 @@
       <c r="C5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -2153,8 +2189,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -2165,7 +2204,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2175,8 +2214,11 @@
       <c r="C8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -2186,8 +2228,11 @@
       <c r="C9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>302</v>
       </c>
@@ -2197,8 +2242,11 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -2208,8 +2256,11 @@
       <c r="C11">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -2218,6 +2269,9 @@
       </c>
       <c r="C12">
         <v>1000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
